--- a/classfiers/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
+++ b/classfiers/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956331877729258</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978118161925601</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9203187250996016</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9978213507625272</v>
+        <v>0.95850622406639</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994873742168217</v>
+        <v>0.9778656126482215</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9663865546218487</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.998272261249288</v>
+        <v>0.9999054820415879</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9935205183585313</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999202582115056</v>
+        <v>0.9997731568998111</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9934924078091106</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9963387425869071</v>
+        <v>0.9956521739130435</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9872464315142894</v>
+        <v>0.9729995421772377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991266375545852</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9931104152057424</v>
+        <v>0.9861097990169313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9986601920336146</v>
+        <v>0.9946392851005328</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
+++ b/classfiers/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6703703703703704</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.7702127659574469</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9025</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9203187250996016</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95850622406639</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9778656126482215</v>
+        <v>0.9999250000000001</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9745762711864406</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9417989417989417</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999054820415879</v>
+        <v>0.96045</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9836956521739131</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9427083333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997731568998111</v>
+        <v>0.9483417085427136</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9942857142857143</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8743718592964824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9304812834224601</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9807160804020101</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9729995421772377</v>
+        <v>0.9296703473659995</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.8908743718592966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9861097990169313</v>
+        <v>0.9042743074556279</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9946392851005328</v>
+        <v>0.9583865577889448</v>
       </c>
     </row>
   </sheetData>
